--- a/soil_microbiome/data/20210216_species.xlsx
+++ b/soil_microbiome/data/20210216_species.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="111">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -34,7 +34,7 @@
     <t xml:space="preserve">Gender</t>
   </si>
   <si>
-    <t xml:space="preserve">species</t>
+    <t xml:space="preserve">Species</t>
   </si>
   <si>
     <t xml:space="preserve">Scientific name</t>
@@ -483,13 +483,13 @@
   </sheetPr>
   <dimension ref="A1:G162"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A100" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C114" activeCellId="0" sqref="C114"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J126" activeCellId="0" sqref="J126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="50.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="25.6"/>
@@ -3112,7 +3112,7 @@
         <v>98</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C114" s="0" t="s">
         <v>29</v>
@@ -3135,10 +3135,10 @@
         <v>98</v>
       </c>
       <c r="B115" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C115" s="0" t="s">
         <v>94</v>
-      </c>
-      <c r="C115" s="0" t="s">
-        <v>95</v>
       </c>
       <c r="D115" s="0" t="s">
         <v>95</v>
@@ -3158,7 +3158,7 @@
         <v>98</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C116" s="0" t="s">
         <v>9</v>
@@ -3181,11 +3181,10 @@
         <v>98</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C117" s="0" t="e">
-        <f aca="false">#N/A</f>
-        <v>#N/A</v>
+        <v>8</v>
+      </c>
+      <c r="C117" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="D117" s="0" t="e">
         <f aca="false">#N/A</f>
@@ -3203,7 +3202,7 @@
         <v>98</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C118" s="0" t="s">
         <v>14</v>
@@ -3223,7 +3222,7 @@
         <v>98</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C119" s="0" t="s">
         <v>14</v>
@@ -3246,7 +3245,7 @@
         <v>98</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C120" s="0" t="s">
         <v>14</v>
@@ -3269,7 +3268,7 @@
         <v>98</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C121" s="0" t="s">
         <v>14</v>
@@ -3292,7 +3291,7 @@
         <v>98</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C122" s="0" t="s">
         <v>14</v>
@@ -3315,7 +3314,7 @@
         <v>101</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C123" s="0" t="s">
         <v>9</v>
@@ -3338,11 +3337,10 @@
         <v>101</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C124" s="0" t="e">
-        <f aca="false">#N/A</f>
-        <v>#N/A</v>
+        <v>8</v>
+      </c>
+      <c r="C124" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="D124" s="0" t="e">
         <f aca="false">#N/A</f>
@@ -3360,7 +3358,7 @@
         <v>101</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C125" s="0" t="s">
         <v>14</v>
@@ -3380,7 +3378,7 @@
         <v>101</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C126" s="0" t="s">
         <v>14</v>
@@ -3403,7 +3401,7 @@
         <v>101</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C127" s="0" t="s">
         <v>14</v>
@@ -3426,7 +3424,7 @@
         <v>101</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C128" s="0" t="s">
         <v>14</v>
@@ -3449,7 +3447,7 @@
         <v>101</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C129" s="0" t="s">
         <v>14</v>
@@ -3472,7 +3470,7 @@
         <v>101</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C130" s="0" t="s">
         <v>14</v>
@@ -3495,7 +3493,7 @@
         <v>101</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C131" s="0" t="s">
         <v>14</v>
